--- a/models/classifiers/feature_importances/feat_imp_classification/xgboost_fragire18_feature_importances.xlsx
+++ b/models/classifiers/feature_importances/feat_imp_classification/xgboost_fragire18_feature_importances.xlsx
@@ -448,51 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FROPCOM0007_SQ020_</t>
+          <t>SF36-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09547405689954758</v>
+        <v>0.03876125067472458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FROPCOM0023</t>
+          <t>mean_distance_ML_YF_follow-up</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09054724127054214</v>
+        <v>0.03687333315610886</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHIE01_SQ002_</t>
+          <t>FROP COM INTERPRETATION</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0748959556221962</v>
+        <v>0.03247315064072609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FROPCOM0013</t>
+          <t>Syn_dsT_follow-up</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06862786412239075</v>
+        <v>0.03063007071614265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FROP COM INTERPRETATION</t>
+          <t>Variation du poids</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06493653357028961</v>
+        <v>0.02848012372851372</v>
       </c>
     </row>
   </sheetData>
